--- a/4008.xlsx
+++ b/4008.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>col</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>error_u</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
   <si>
     <t>TASSO</t>
@@ -1296,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1304,8 +1307,8 @@
   <cols>
     <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.3516" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1333,16 +1336,19 @@
       <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>14</v>
@@ -1359,16 +1365,19 @@
       <c r="H2" s="5">
         <v>1.7</v>
       </c>
+      <c r="I2" s="5">
+        <v>2.124</v>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>14</v>
@@ -1385,16 +1394,19 @@
       <c r="H3" s="7">
         <v>3.6</v>
       </c>
+      <c r="I3" s="7">
+        <v>2.5425</v>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <v>14</v>
@@ -1411,16 +1423,19 @@
       <c r="H4" s="7">
         <v>2.1</v>
       </c>
+      <c r="I4" s="7">
+        <v>2.9835</v>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>14</v>
@@ -1437,16 +1452,19 @@
       <c r="H5" s="7">
         <v>2.7</v>
       </c>
+      <c r="I5" s="7">
+        <v>2.8305</v>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>14</v>
@@ -1463,16 +1481,19 @@
       <c r="H6" s="7">
         <v>2.3</v>
       </c>
+      <c r="I6" s="7">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>14</v>
@@ -1489,16 +1510,19 @@
       <c r="H7" s="7">
         <v>1.7</v>
       </c>
+      <c r="I7" s="7">
+        <v>2.0205</v>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>14</v>
@@ -1515,16 +1539,19 @@
       <c r="H8" s="7">
         <v>1.3</v>
       </c>
+      <c r="I8" s="7">
+        <v>1.6245</v>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>14</v>
@@ -1541,16 +1568,19 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
+      <c r="I9" s="7">
+        <v>1.323</v>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>14</v>
@@ -1567,16 +1597,19 @@
       <c r="H10" s="7">
         <v>0.96</v>
       </c>
+      <c r="I10" s="7">
+        <v>0.99225</v>
+      </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>14</v>
@@ -1593,16 +1626,19 @@
       <c r="H11" s="7">
         <v>1.7</v>
       </c>
+      <c r="I11" s="7">
+        <v>0.8505</v>
+      </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
         <v>14</v>
@@ -1619,16 +1655,19 @@
       <c r="H12" s="7">
         <v>0.95</v>
       </c>
+      <c r="I12" s="7">
+        <v>0.72045</v>
+      </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C13" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4">
         <v>14</v>
@@ -1645,16 +1684,19 @@
       <c r="H13" s="7">
         <v>0.42</v>
       </c>
+      <c r="I13" s="7">
+        <v>0.5211</v>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
         <v>14</v>
@@ -1671,16 +1713,19 @@
       <c r="H14" s="7">
         <v>0.48</v>
       </c>
+      <c r="I14" s="7">
+        <v>0.3348</v>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C15" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
@@ -1697,16 +1742,19 @@
       <c r="H15" s="7">
         <v>0.3</v>
       </c>
+      <c r="I15" s="7">
+        <v>0.2376</v>
+      </c>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4">
         <v>14</v>
@@ -1723,16 +1771,19 @@
       <c r="H16" s="7">
         <v>0.35</v>
       </c>
+      <c r="I16" s="7">
+        <v>0.14175</v>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C17" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4">
         <v>14</v>
@@ -1749,16 +1800,19 @@
       <c r="H17" s="7">
         <v>0.11</v>
       </c>
+      <c r="I17" s="7">
+        <v>0.07875</v>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C18" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
         <v>14</v>
@@ -1775,16 +1829,19 @@
       <c r="H18" s="7">
         <v>0.13</v>
       </c>
+      <c r="I18" s="7">
+        <v>0.04275</v>
+      </c>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C19" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4">
         <v>14</v>
@@ -1801,16 +1858,19 @@
       <c r="H19" s="7">
         <v>0.056</v>
       </c>
+      <c r="I19" s="7">
+        <v>0.01539</v>
+      </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4">
         <v>14</v>
@@ -1827,16 +1887,19 @@
       <c r="H20" s="7">
         <v>0.041</v>
       </c>
+      <c r="I20" s="7">
+        <v>0.008144999999999999</v>
+      </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s" s="6">
         <v>1</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5">
         <v>14</v>
@@ -1852,6 +1915,9 @@
       </c>
       <c r="H21" s="7">
         <v>0.017</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.00261</v>
       </c>
     </row>
   </sheetData>
